--- a/outputs/tables/comparison_statistics.xlsx
+++ b/outputs/tables/comparison_statistics.xlsx
@@ -528,43 +528,43 @@
         <v>0.7373409851745576</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6636776661884266</v>
+        <v>0.6633668101386896</v>
       </c>
       <c r="E2" t="n">
-        <v>0.07366331898613099</v>
+        <v>0.07397417503586801</v>
       </c>
       <c r="F2" t="n">
-        <v>58.53629183752448</v>
+        <v>58.43840001276196</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>30618</v>
+        <v>33322</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.991830724542123e-310</v>
       </c>
       <c r="J2" t="n">
-        <v>1903</v>
+        <v>1910</v>
       </c>
       <c r="K2" t="n">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="L2" t="n">
         <v>73</v>
       </c>
       <c r="M2" t="n">
-        <v>1.280112654596865</v>
+        <v>1.277971887566252</v>
       </c>
       <c r="N2" t="n">
-        <v>0.7881220818692607</v>
+        <v>0.7876219615221858</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9100908656145384</v>
+        <v>0.9134385461501674</v>
       </c>
       <c r="P2" t="n">
-        <v>0.8550932568149211</v>
+        <v>0.8617886178861789</v>
       </c>
     </row>
     <row r="3">
@@ -577,46 +577,46 @@
         <v>2091</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7349928263988523</v>
+        <v>0.7347728359636538</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6636776661884266</v>
+        <v>0.6633668101386896</v>
       </c>
       <c r="E3" t="n">
-        <v>0.07131516021042572</v>
+        <v>0.07140602582496425</v>
       </c>
       <c r="F3" t="n">
-        <v>59.46422643204695</v>
+        <v>59.92841722638506</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>26200.5</v>
+        <v>26499</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1897</v>
+        <v>1893</v>
       </c>
       <c r="K3" t="n">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="L3" t="n">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="M3" t="n">
-        <v>1.300405378645451</v>
+        <v>1.310556628260458</v>
       </c>
       <c r="N3" t="n">
-        <v>0.7927862925825029</v>
+        <v>0.7950684930275846</v>
       </c>
       <c r="O3" t="n">
-        <v>0.907221425155428</v>
+        <v>0.9053084648493543</v>
       </c>
       <c r="P3" t="n">
-        <v>0.852702056432329</v>
+        <v>0.8531802965088474</v>
       </c>
     </row>
     <row r="4">
@@ -632,43 +632,43 @@
         <v>0.7373409851745576</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7349928263988523</v>
+        <v>0.7347728359636538</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002348158775705267</v>
+        <v>0.002568149210903758</v>
       </c>
       <c r="F4" t="n">
-        <v>2.679511395070914</v>
+        <v>3.053212684020321</v>
       </c>
       <c r="G4" t="n">
-        <v>0.007430807241832487</v>
+        <v>0.002292595392990483</v>
       </c>
       <c r="H4" t="n">
-        <v>802391</v>
+        <v>781316.5</v>
       </c>
       <c r="I4" t="n">
-        <v>0.000579991448502074</v>
+        <v>8.326250815829943e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>1012</v>
+        <v>1054</v>
       </c>
       <c r="K4" t="n">
-        <v>867</v>
+        <v>814</v>
       </c>
       <c r="L4" t="n">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="M4" t="n">
-        <v>0.05859743310162904</v>
+        <v>0.06676979479394642</v>
       </c>
       <c r="N4" t="n">
-        <v>0.05851103457622706</v>
+        <v>0.06663731936158447</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4839789574366332</v>
+        <v>0.5040650406504065</v>
       </c>
       <c r="P4" t="n">
-        <v>0.06934481109516978</v>
+        <v>0.1147776183644189</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/tables/comparison_statistics.xlsx
+++ b/outputs/tables/comparison_statistics.xlsx
@@ -1,37 +1,102 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t>comparison</t>
+  </si>
+  <si>
+    <t>n_pairs</t>
+  </si>
+  <si>
+    <t>mean_group1</t>
+  </si>
+  <si>
+    <t>mean_group2</t>
+  </si>
+  <si>
+    <t>mean_diff</t>
+  </si>
+  <si>
+    <t>t_test_statistic</t>
+  </si>
+  <si>
+    <t>t_test_p</t>
+  </si>
+  <si>
+    <t>wilcoxon_statistic</t>
+  </si>
+  <si>
+    <t>wilcoxon_p</t>
+  </si>
+  <si>
+    <t>group1_better_count</t>
+  </si>
+  <si>
+    <t>group2_better_count</t>
+  </si>
+  <si>
+    <t>ties_count</t>
+  </si>
+  <si>
+    <t>cohens_d</t>
+  </si>
+  <si>
+    <t>r_effect_size</t>
+  </si>
+  <si>
+    <t>cles</t>
+  </si>
+  <si>
+    <t>cliffs_delta</t>
+  </si>
+  <si>
+    <t>ai_always_vs_human_only</t>
+  </si>
+  <si>
+    <t>human_only_supervision_vs_human_only</t>
+  </si>
+  <si>
+    <t>ai_always_vs_human_only_supervision</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +111,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,258 +427,214 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>comparison</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>n_pairs</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>mean_group1</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>mean_group2</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>mean_diff</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>t_test_statistic</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>t_test_p</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>wilcoxon_statistic</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>wilcoxon_p</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>group1_better_count</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>group2_better_count</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>ties_count</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>cohens_d</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>r_effect_size</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>cles</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>cliffs_delta</t>
-        </is>
+    <row r="1" spans="1:16">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>ai_always_vs_human_only</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:16">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
         <v>2091</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>0.7373409851745576</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.6636776661884266</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.07366331898613099</v>
-      </c>
-      <c r="F2" t="n">
-        <v>58.53629183752448</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="D2">
+        <v>0.6635294117647059</v>
+      </c>
+      <c r="E2">
+        <v>0.07381157340985167</v>
+      </c>
+      <c r="F2">
+        <v>58.32141195447652</v>
+      </c>
+      <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2" t="n">
-        <v>30618</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="H2">
+        <v>32799.5</v>
+      </c>
+      <c r="I2">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>1903</v>
-      </c>
-      <c r="K2" t="n">
-        <v>115</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="J2">
+        <v>1921</v>
+      </c>
+      <c r="K2">
+        <v>108</v>
+      </c>
+      <c r="L2">
+        <v>62</v>
+      </c>
+      <c r="M2">
+        <v>1.275413510717517</v>
+      </c>
+      <c r="N2">
+        <v>0.7870222316076038</v>
+      </c>
+      <c r="O2">
+        <v>0.9186991869918699</v>
+      </c>
+      <c r="P2">
+        <v>0.8670492587278814</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>2091</v>
+      </c>
+      <c r="C3">
+        <v>0.7347154471544717</v>
+      </c>
+      <c r="D3">
+        <v>0.6635294117647059</v>
+      </c>
+      <c r="E3">
+        <v>0.07118603538976576</v>
+      </c>
+      <c r="F3">
+        <v>59.0725994421978</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>28646</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1908</v>
+      </c>
+      <c r="K3">
+        <v>110</v>
+      </c>
+      <c r="L3">
         <v>73</v>
       </c>
-      <c r="M2" t="n">
-        <v>1.280112654596865</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.7881220818692607</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.9100908656145384</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.8550932568149211</v>
+      <c r="M3">
+        <v>1.291841005162774</v>
+      </c>
+      <c r="N3">
+        <v>0.7908345577428308</v>
+      </c>
+      <c r="O3">
+        <v>0.9124820659971306</v>
+      </c>
+      <c r="P3">
+        <v>0.8598756575801052</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>human_only_supervision_vs_human_only</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="4" spans="1:16">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
         <v>2091</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.7349928263988523</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.6636776661884266</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.07131516021042572</v>
-      </c>
-      <c r="F3" t="n">
-        <v>59.46422643204695</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>26200.5</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1897</v>
-      </c>
-      <c r="K3" t="n">
-        <v>114</v>
-      </c>
-      <c r="L3" t="n">
-        <v>80</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.300405378645451</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.7927862925825029</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.907221425155428</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.852702056432329</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>ai_always_vs_human_only_supervision</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2091</v>
-      </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>0.7373409851745576</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.7349928263988523</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.002348158775705267</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2.679511395070914</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.007430807241832487</v>
-      </c>
-      <c r="H4" t="n">
-        <v>802391</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.000579991448502074</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1012</v>
-      </c>
-      <c r="K4" t="n">
-        <v>867</v>
-      </c>
-      <c r="L4" t="n">
-        <v>212</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.05859743310162904</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.05851103457622706</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.4839789574366332</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.06934481109516978</v>
+      <c r="D4">
+        <v>0.7347154471544717</v>
+      </c>
+      <c r="E4">
+        <v>0.002625538020085916</v>
+      </c>
+      <c r="F4">
+        <v>3.143902912786065</v>
+      </c>
+      <c r="G4">
+        <v>0.001690517404219795</v>
+      </c>
+      <c r="H4">
+        <v>776436.5</v>
+      </c>
+      <c r="I4">
+        <v>0.0001608082577003753</v>
+      </c>
+      <c r="J4">
+        <v>1003</v>
+      </c>
+      <c r="K4">
+        <v>855</v>
+      </c>
+      <c r="L4">
+        <v>233</v>
+      </c>
+      <c r="M4">
+        <v>0.06875307227612018</v>
+      </c>
+      <c r="N4">
+        <v>0.06860747892236983</v>
+      </c>
+      <c r="O4">
+        <v>0.4796747967479675</v>
+      </c>
+      <c r="P4">
+        <v>0.07077953132472502</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/outputs/tables/comparison_statistics.xlsx
+++ b/outputs/tables/comparison_statistics.xlsx
@@ -495,43 +495,43 @@
         <v>0.7373409851745576</v>
       </c>
       <c r="D2">
-        <v>0.6635294117647059</v>
+        <v>0.6642802486848399</v>
       </c>
       <c r="E2">
-        <v>0.07381157340985167</v>
+        <v>0.07306073648971767</v>
       </c>
       <c r="F2">
-        <v>58.32141195447652</v>
+        <v>58.12016681372605</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>32799.5</v>
+        <v>36694</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>6.139775177396182E-310</v>
       </c>
       <c r="J2">
-        <v>1921</v>
+        <v>1900</v>
       </c>
       <c r="K2">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="L2">
         <v>62</v>
       </c>
       <c r="M2">
-        <v>1.275413510717517</v>
+        <v>1.271012540938532</v>
       </c>
       <c r="N2">
-        <v>0.7870222316076038</v>
+        <v>0.7859853191972207</v>
       </c>
       <c r="O2">
-        <v>0.9186991869918699</v>
+        <v>0.9086561453849833</v>
       </c>
       <c r="P2">
-        <v>0.8670492587278814</v>
+        <v>0.846963175514108</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -542,46 +542,46 @@
         <v>2091</v>
       </c>
       <c r="C3">
-        <v>0.7347154471544717</v>
+        <v>0.7346054519368723</v>
       </c>
       <c r="D3">
-        <v>0.6635294117647059</v>
+        <v>0.6642802486848399</v>
       </c>
       <c r="E3">
-        <v>0.07118603538976576</v>
+        <v>0.0703252032520324</v>
       </c>
       <c r="F3">
-        <v>59.0725994421978</v>
+        <v>59.25041984149072</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>28646</v>
+        <v>29703.5</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>5.234633614918019E-310</v>
       </c>
       <c r="J3">
-        <v>1908</v>
+        <v>1891</v>
       </c>
       <c r="K3">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="L3">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="M3">
-        <v>1.291841005162774</v>
+        <v>1.295729706278522</v>
       </c>
       <c r="N3">
-        <v>0.7908345577428308</v>
+        <v>0.7917237608971222</v>
       </c>
       <c r="O3">
-        <v>0.9124820659971306</v>
+        <v>0.9043519846963175</v>
       </c>
       <c r="P3">
-        <v>0.8598756575801052</v>
+        <v>0.850310856049737</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -595,43 +595,43 @@
         <v>0.7373409851745576</v>
       </c>
       <c r="D4">
-        <v>0.7347154471544717</v>
+        <v>0.7346054519368723</v>
       </c>
       <c r="E4">
-        <v>0.002625538020085916</v>
+        <v>0.002735533237685273</v>
       </c>
       <c r="F4">
-        <v>3.143902912786065</v>
+        <v>3.223541341039794</v>
       </c>
       <c r="G4">
-        <v>0.001690517404219795</v>
+        <v>0.001285665451697935</v>
       </c>
       <c r="H4">
-        <v>776436.5</v>
+        <v>793919</v>
       </c>
       <c r="I4">
-        <v>0.0001608082577003753</v>
+        <v>4.883376637792568E-05</v>
       </c>
       <c r="J4">
-        <v>1003</v>
+        <v>1051</v>
       </c>
       <c r="K4">
-        <v>855</v>
+        <v>835</v>
       </c>
       <c r="L4">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="M4">
-        <v>0.06875307227612018</v>
+        <v>0.07049466123913085</v>
       </c>
       <c r="N4">
-        <v>0.06860747892236983</v>
+        <v>0.07033688766498612</v>
       </c>
       <c r="O4">
-        <v>0.4796747967479675</v>
+        <v>0.5026303204208513</v>
       </c>
       <c r="P4">
-        <v>0.07077953132472502</v>
+        <v>0.103299856527977</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/tables/comparison_statistics.xlsx
+++ b/outputs/tables/comparison_statistics.xlsx
@@ -1,102 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>comparison</t>
-  </si>
-  <si>
-    <t>n_pairs</t>
-  </si>
-  <si>
-    <t>mean_group1</t>
-  </si>
-  <si>
-    <t>mean_group2</t>
-  </si>
-  <si>
-    <t>mean_diff</t>
-  </si>
-  <si>
-    <t>t_test_statistic</t>
-  </si>
-  <si>
-    <t>t_test_p</t>
-  </si>
-  <si>
-    <t>wilcoxon_statistic</t>
-  </si>
-  <si>
-    <t>wilcoxon_p</t>
-  </si>
-  <si>
-    <t>group1_better_count</t>
-  </si>
-  <si>
-    <t>group2_better_count</t>
-  </si>
-  <si>
-    <t>ties_count</t>
-  </si>
-  <si>
-    <t>cohens_d</t>
-  </si>
-  <si>
-    <t>r_effect_size</t>
-  </si>
-  <si>
-    <t>cles</t>
-  </si>
-  <si>
-    <t>cliffs_delta</t>
-  </si>
-  <si>
-    <t>ai_always_vs_human_only</t>
-  </si>
-  <si>
-    <t>human_only_supervision_vs_human_only</t>
-  </si>
-  <si>
-    <t>ai_always_vs_human_only_supervision</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -111,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -427,214 +420,258 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>comparison</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>n_pairs</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>mean_group1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>mean_group2</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>mean_diff</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>t_test_statistic</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>t_test_p</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>wilcoxon_statistic</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>wilcoxon_p</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>group1_better_count</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>group2_better_count</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ties_count</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>cohens_d</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>r_effect_size</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>cles</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>cliffs_delta</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ai_always_vs_human_only</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2091</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7373409851745576</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6636585365853659</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.07368244858919171</v>
+      </c>
+      <c r="F2" t="n">
+        <v>58.33565974979705</v>
+      </c>
+      <c r="G2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
+      <c r="H2" t="n">
+        <v>33601</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1908</v>
+      </c>
+      <c r="K2" t="n">
+        <v>122</v>
+      </c>
+      <c r="L2" t="n">
+        <v>61</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.275725091491041</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.7870953913716158</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.9124820659971306</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.8541367766618843</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>human_only_supervision_vs_human_only</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>2091</v>
       </c>
-      <c r="C2">
+      <c r="C3" t="n">
+        <v>0.7343137254901961</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6636585365853659</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.07065518890483025</v>
+      </c>
+      <c r="F3" t="n">
+        <v>59.57188410184428</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>29694</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1902</v>
+      </c>
+      <c r="K3" t="n">
+        <v>118</v>
+      </c>
+      <c r="L3" t="n">
+        <v>71</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.3027597120196</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.793318586364941</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.9096126255380201</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.8531802965088474</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ai_always_vs_human_only_supervision</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2091</v>
+      </c>
+      <c r="C4" t="n">
         <v>0.7373409851745576</v>
       </c>
-      <c r="D2">
-        <v>0.6642802486848399</v>
-      </c>
-      <c r="E2">
-        <v>0.07306073648971767</v>
-      </c>
-      <c r="F2">
-        <v>58.12016681372605</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>36694</v>
-      </c>
-      <c r="I2">
-        <v>6.139775177396182E-310</v>
-      </c>
-      <c r="J2">
-        <v>1900</v>
-      </c>
-      <c r="K2">
-        <v>129</v>
-      </c>
-      <c r="L2">
-        <v>62</v>
-      </c>
-      <c r="M2">
-        <v>1.271012540938532</v>
-      </c>
-      <c r="N2">
-        <v>0.7859853191972207</v>
-      </c>
-      <c r="O2">
-        <v>0.9086561453849833</v>
-      </c>
-      <c r="P2">
-        <v>0.846963175514108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3">
-        <v>2091</v>
-      </c>
-      <c r="C3">
-        <v>0.7346054519368723</v>
-      </c>
-      <c r="D3">
-        <v>0.6642802486848399</v>
-      </c>
-      <c r="E3">
-        <v>0.0703252032520324</v>
-      </c>
-      <c r="F3">
-        <v>59.25041984149072</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>29703.5</v>
-      </c>
-      <c r="I3">
-        <v>5.234633614918019E-310</v>
-      </c>
-      <c r="J3">
-        <v>1891</v>
-      </c>
-      <c r="K3">
-        <v>113</v>
-      </c>
-      <c r="L3">
-        <v>87</v>
-      </c>
-      <c r="M3">
-        <v>1.295729706278522</v>
-      </c>
-      <c r="N3">
-        <v>0.7917237608971222</v>
-      </c>
-      <c r="O3">
-        <v>0.9043519846963175</v>
-      </c>
-      <c r="P3">
-        <v>0.850310856049737</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4">
-        <v>2091</v>
-      </c>
-      <c r="C4">
-        <v>0.7373409851745576</v>
-      </c>
-      <c r="D4">
-        <v>0.7346054519368723</v>
-      </c>
-      <c r="E4">
-        <v>0.002735533237685273</v>
-      </c>
-      <c r="F4">
-        <v>3.223541341039794</v>
-      </c>
-      <c r="G4">
-        <v>0.001285665451697935</v>
-      </c>
-      <c r="H4">
-        <v>793919</v>
-      </c>
-      <c r="I4">
-        <v>4.883376637792568E-05</v>
-      </c>
-      <c r="J4">
-        <v>1051</v>
-      </c>
-      <c r="K4">
-        <v>835</v>
-      </c>
-      <c r="L4">
-        <v>205</v>
-      </c>
-      <c r="M4">
-        <v>0.07049466123913085</v>
-      </c>
-      <c r="N4">
-        <v>0.07033688766498612</v>
-      </c>
-      <c r="O4">
-        <v>0.5026303204208513</v>
-      </c>
-      <c r="P4">
-        <v>0.103299856527977</v>
+      <c r="D4" t="n">
+        <v>0.7343137254901961</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.003027259684361461</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3.595070790532999</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0003318186982093102</v>
+      </c>
+      <c r="H4" t="n">
+        <v>771519</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.121009148112077e-05</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1038</v>
+      </c>
+      <c r="K4" t="n">
+        <v>831</v>
+      </c>
+      <c r="L4" t="n">
+        <v>222</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.07861952762410362</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.07839630657890702</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.4964131994261119</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.09899569583931134</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>